--- a/FabricationData/BOM.xlsx
+++ b/FabricationData/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akita\Documents\Dropbox\Mounter\FabricationData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akita/Dropbox/Mounter/FabricationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1805D83E-054F-48D3-B5FB-7FC050098B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6045BB-548C-1044-A129-E9F4C0F12568}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{82C0B2F0-C52C-FB41-B1D0-D3A092FCCC40}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22140" windowHeight="13180" xr2:uid="{82C0B2F0-C52C-FB41-B1D0-D3A092FCCC40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="100">
   <si>
     <t>品名</t>
     <rPh sb="0" eb="2">
@@ -227,10 +227,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.0mm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3.0mm</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -285,14 +281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>M3x8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>M3x5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>色画用紙</t>
     <rPh sb="0" eb="4">
       <t>イロガヨウシ</t>
@@ -414,10 +402,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シャーペン(0.2mm芯)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>25x20cm</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -614,6 +598,24 @@
   </si>
   <si>
     <t>M3x50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50cm程度</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">テイド </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.2mm芯</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">シｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャーペン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -621,7 +623,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -994,18 +996,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3C4421-DA1B-7948-B8AE-AA7CE2941636}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1019,35 +1021,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1058,10 +1060,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1072,10 +1074,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1083,10 +1085,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1094,10 +1096,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1105,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1113,52 +1115,52 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1166,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1174,7 +1176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1185,7 +1187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1193,21 +1195,21 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1215,35 +1217,35 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1251,24 +1253,24 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1279,38 +1281,38 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>88</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C25">
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1318,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1332,21 +1334,24 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
       <c r="D28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1354,10 +1359,10 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1368,220 +1373,205 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>37</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
       </c>
       <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A35" t="s">
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
         <v>52</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
         <v>53</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36">
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
         <v>4</v>
       </c>
-      <c r="D36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:4">
       <c r="B41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="B42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A43" t="s">
-        <v>28</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" t="s">
         <v>95</v>
       </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
       <c r="C44">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="B45" t="s">
         <v>96</v>
       </c>
       <c r="C45">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="B46" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="C47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A51" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
